--- a/ПЕРЕЧЕНЬ СИЗ.xlsx
+++ b/ПЕРЕЧЕНЬ СИЗ.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2916ECA-251C-49E6-B926-3C853F6A7DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2C875-B8DB-4526-A723-2E8F406031AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$A$13:$H$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$A$12:$H$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Подразделение</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>(Ф.И.О)</t>
-  </si>
-  <si>
-    <t>(                           )</t>
   </si>
   <si>
     <t>в</t>
@@ -269,6 +266,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -278,17 +281,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,10 +629,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,26 +648,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="9"/>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G4" s="10" t="s">
@@ -698,7 +693,7 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -710,7 +705,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -720,125 +715,129 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="26" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="12" spans="1:28" s="21" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H12" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+    <row r="14" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+    </row>
+    <row r="15" spans="1:28" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:28" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="25"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="F16" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="H16" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+    </row>
+    <row r="17" spans="1:10" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="16"/>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
-        <v>18</v>
+      <c r="H17" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="24"/>
+    <row r="18" spans="1:10" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="25"/>
       <c r="C18" s="16"/>
       <c r="D18" s="18" t="s">
         <v>11</v>
@@ -854,167 +853,88 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+    <row r="19" spans="1:10" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+    </row>
+    <row r="20" spans="1:10" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="25"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="18" t="s">
-        <v>18</v>
+      <c r="H20" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:13" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="24"/>
+    <row r="21" spans="1:10" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="19" t="s">
-        <v>12</v>
+      <c r="H21" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:13" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+    <row r="22" spans="1:10" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="25"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="D22" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:H13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A12:H12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="A15:AB15"/>
+    <mergeCell ref="A14:AB14"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
